--- a/Data Files/Backoffice/Arena.xlsx
+++ b/Data Files/Backoffice/Arena.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janine.bautista\git\JANINE_QA\Data Files\Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianne.n.c.gerardo\git\JANINE_QA\Data Files\Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89890178-0B4E-4FC9-B75E-5BF1C427DCD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <t>Arena_Name</t>
   </si>
   <si>
-    <t>Event Name</t>
-  </si>
-  <si>
     <t>Acronym</t>
   </si>
   <si>
@@ -44,13 +42,16 @@
     <t>Fight 1</t>
   </si>
   <si>
-    <t>AR1</t>
+    <t>Event_Name</t>
+  </si>
+  <si>
+    <t>Arena 1 - AR1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,42 +365,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -410,5 +411,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>